--- a/pythonProject/有效主题关联对.xlsx
+++ b/pythonProject/有效主题关联对.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
@@ -433,7 +433,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2008_topic3-2011_topic7-0.9688671484488204</t>
+          <t>2008_topic1-2011_topic19-0.6468078741540743</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2008_topic6-2011_topic2-0.6306985658126518</t>
+          <t>2008_topic2-2011_topic17-0.6559269707904489</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -487,7 +487,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2008_topic7-2011_topic19-0.9210950181141588</t>
+          <t>2008_topic5-2011_topic3-0.6628175786355728</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -507,14 +507,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2019_topic4-2021_topic3-0.504717478287314</t>
+          <t>2019_topic5-2021_topic4-0.5973346443761043</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2008_topic12-2011_topic9-0.5787336453989526</t>
+          <t>2008_topic6-2011_topic10-0.953300687514589</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -534,14 +534,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2019_topic5-2021_topic4-0.5973346443761043</t>
+          <t>2019_topic7-2021_topic14-0.9458930832978664</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2008_topic17-2011_topic10-0.9996847956542624</t>
+          <t>2008_topic7-2011_topic11-0.6835487669159969</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -561,14 +561,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2019_topic7-2021_topic14-0.9458930832978664</t>
+          <t>2019_topic8-2021_topic6-0.878241696584694</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2008_topic18-2011_topic15-0.8783933537326755</t>
+          <t>2008_topic8-2011_topic15-0.6438384094765597</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -588,14 +588,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2019_topic8-2021_topic6-0.878241696584694</t>
+          <t>2019_topic11-2021_topic11-0.6323909577416582</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2008_topic20-2011_topic4-0.6895465659264027</t>
+          <t>2008_topic9-2011_topic14-0.9244525944635628</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -610,11 +610,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2019_topic10-2021_topic5-0.5035232838370921</t>
+          <t>2019_topic13-2021_topic19-0.7331681879715565</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2008_topic10-2011_topic4-0.6569527955508907</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>2014_topic10-2017_topic9-0.8777238584645768</t>
@@ -622,16 +627,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2017_topic12-2019_topic4-0.4897217361062652</t>
+          <t>2017_topic21-2019_topic2-0.8680200900171441</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2019_topic11-2021_topic11-0.6323909577416582</t>
+          <t>2019_topic15-2021_topic12-0.622938796661489</t>
         </is>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2008_topic11-2011_topic2-0.547853652164532</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>2014_topic14-2017_topic14-0.5778126451609447</t>
@@ -644,14 +654,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2019_topic13-2021_topic19-0.7331681879715565</t>
+          <t>2019_topic16-2021_topic18-0.643358960365003</t>
         </is>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2008_topic12-2011_topic6-0.9271189593515704</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2014_topic17-2017_topic13-0.5138689289411756</t>
+          <t>2014_topic20-2017_topic3-0.8652622376416285</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,11 +676,16 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2019_topic15-2021_topic12-0.622938796661489</t>
+          <t>2019_topic18-2021_topic5-0.6703296460864853</t>
         </is>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2008_topic14-2011_topic13-0.7884806728208681</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>2014_topic20-2017_topic3-0.8652622376416285</t>
@@ -678,11 +698,16 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2019_topic16-2021_topic18-0.643358960365003</t>
+          <t>2019_topic20-2021_topic13-0.7143847765267327</t>
         </is>
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2008_topic15-2011_topic7-0.7407189794873723</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>2019_topic18-2021_topic5-0.6703296460864853</t>
@@ -690,9 +715,28 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2008_topic16-2011_topic1-0.8310469330470472</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>2019_topic20-2021_topic13-0.7143847765267327</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2008_topic18-2011_topic5-0.8470473336241856</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2008_topic19-2011_topic9-0.7911339990554394</t>
         </is>
       </c>
     </row>
